--- a/SchedulingData/dynamic16/pso/scheduling1_1.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_1.xlsx
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50.8</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>25.62</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="D4" t="n">
-        <v>54.12</v>
+        <v>75.3</v>
       </c>
       <c r="E4" t="n">
-        <v>25.788</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>75.7</v>
+        <v>36.92</v>
       </c>
       <c r="E5" t="n">
-        <v>27.56</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="6">
@@ -542,55 +542,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>106.86</v>
       </c>
       <c r="E6" t="n">
-        <v>26.7</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>54.1</v>
+        <v>105.32</v>
       </c>
       <c r="E7" t="n">
-        <v>26.76</v>
+        <v>23.268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75.7</v>
+        <v>75.3</v>
       </c>
       <c r="D8" t="n">
-        <v>112.02</v>
+        <v>153</v>
       </c>
       <c r="E8" t="n">
-        <v>24.568</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="9">
@@ -599,207 +599,207 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.8</v>
+        <v>105.32</v>
       </c>
       <c r="D9" t="n">
-        <v>87.3</v>
+        <v>165.22</v>
       </c>
       <c r="E9" t="n">
-        <v>23.1</v>
+        <v>19.888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>111.1</v>
+        <v>62.26</v>
       </c>
       <c r="E10" t="n">
-        <v>23.66</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.8</v>
+        <v>36.92</v>
       </c>
       <c r="D11" t="n">
-        <v>118.28</v>
+        <v>104.4</v>
       </c>
       <c r="E11" t="n">
-        <v>22.972</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>111.1</v>
+        <v>104.4</v>
       </c>
       <c r="D12" t="n">
-        <v>153.2</v>
+        <v>145.24</v>
       </c>
       <c r="E12" t="n">
-        <v>20.58</v>
+        <v>20.896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>112.02</v>
+        <v>165.22</v>
       </c>
       <c r="D13" t="n">
-        <v>164.42</v>
+        <v>237.02</v>
       </c>
       <c r="E13" t="n">
-        <v>21.448</v>
+        <v>16.288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>118.28</v>
+        <v>237.02</v>
       </c>
       <c r="D14" t="n">
-        <v>166.68</v>
+        <v>320.18</v>
       </c>
       <c r="E14" t="n">
-        <v>18.772</v>
+        <v>13.072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>54.12</v>
+        <v>153</v>
       </c>
       <c r="D15" t="n">
-        <v>118.9</v>
+        <v>212.5</v>
       </c>
       <c r="E15" t="n">
-        <v>21.42</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>54.1</v>
+        <v>320.18</v>
       </c>
       <c r="D16" t="n">
-        <v>107</v>
+        <v>392.48</v>
       </c>
       <c r="E16" t="n">
-        <v>22.6</v>
+        <v>9.952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>168.42</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
-        <v>18.568</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>168.42</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>246</v>
+        <v>103.2</v>
       </c>
       <c r="E18" t="n">
-        <v>14.92</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>246</v>
+        <v>212.5</v>
       </c>
       <c r="D19" t="n">
-        <v>317.04</v>
+        <v>280.82</v>
       </c>
       <c r="E19" t="n">
-        <v>11.436</v>
+        <v>13.088</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>317.04</v>
+        <v>62.26</v>
       </c>
       <c r="D20" t="n">
-        <v>363.86</v>
+        <v>119.86</v>
       </c>
       <c r="E20" t="n">
-        <v>8.884</v>
+        <v>22.304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>87.3</v>
+        <v>103.2</v>
       </c>
       <c r="D21" t="n">
-        <v>141.6</v>
+        <v>170.84</v>
       </c>
       <c r="E21" t="n">
-        <v>19.8</v>
+        <v>18.836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>153.2</v>
+        <v>280.82</v>
       </c>
       <c r="D22" t="n">
-        <v>211.6</v>
+        <v>341.06</v>
       </c>
       <c r="E22" t="n">
-        <v>16.38</v>
+        <v>10.184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>166.68</v>
+        <v>106.86</v>
       </c>
       <c r="D23" t="n">
-        <v>216.18</v>
+        <v>156.66</v>
       </c>
       <c r="E23" t="n">
-        <v>15.932</v>
+        <v>22.104</v>
       </c>
     </row>
     <row r="24">
@@ -884,169 +884,169 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>164.42</v>
+        <v>170.84</v>
       </c>
       <c r="D24" t="n">
-        <v>221.18</v>
+        <v>210.8</v>
       </c>
       <c r="E24" t="n">
-        <v>17.392</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>118.9</v>
+        <v>156.66</v>
       </c>
       <c r="D25" t="n">
-        <v>167.36</v>
+        <v>195.8</v>
       </c>
       <c r="E25" t="n">
-        <v>18.204</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>141.6</v>
+        <v>119.86</v>
       </c>
       <c r="D26" t="n">
-        <v>175.78</v>
+        <v>184.74</v>
       </c>
       <c r="E26" t="n">
-        <v>17.512</v>
+        <v>17.936</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>211.6</v>
+        <v>341.06</v>
       </c>
       <c r="D27" t="n">
-        <v>292.26</v>
+        <v>407.66</v>
       </c>
       <c r="E27" t="n">
-        <v>12.404</v>
+        <v>7.144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>221.18</v>
+        <v>195.8</v>
       </c>
       <c r="D28" t="n">
-        <v>313.72</v>
+        <v>254.14</v>
       </c>
       <c r="E28" t="n">
-        <v>13.248</v>
+        <v>14.616</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>292.26</v>
+        <v>407.66</v>
       </c>
       <c r="D29" t="n">
-        <v>347.24</v>
+        <v>453.98</v>
       </c>
       <c r="E29" t="n">
-        <v>8.036</v>
+        <v>4.152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>175.78</v>
+        <v>184.74</v>
       </c>
       <c r="D30" t="n">
-        <v>264.54</v>
+        <v>239.84</v>
       </c>
       <c r="E30" t="n">
-        <v>13.716</v>
+        <v>13.556</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>264.54</v>
+        <v>210.8</v>
       </c>
       <c r="D31" t="n">
-        <v>332.12</v>
+        <v>285.48</v>
       </c>
       <c r="E31" t="n">
-        <v>10.548</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>363.86</v>
+        <v>285.48</v>
       </c>
       <c r="D32" t="n">
-        <v>416.16</v>
+        <v>341.78</v>
       </c>
       <c r="E32" t="n">
-        <v>5.764</v>
+        <v>7.112</v>
       </c>
     </row>
     <row r="33">
@@ -1055,17 +1055,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>347.24</v>
+        <v>254.14</v>
       </c>
       <c r="D33" t="n">
-        <v>402.44</v>
+        <v>315.34</v>
       </c>
       <c r="E33" t="n">
-        <v>3.656</v>
+        <v>12.096</v>
       </c>
     </row>
     <row r="34">
@@ -1074,74 +1074,74 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>402.44</v>
+        <v>315.34</v>
       </c>
       <c r="D34" t="n">
-        <v>444.94</v>
+        <v>364.64</v>
       </c>
       <c r="E34" t="n">
-        <v>0.536</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>444.94</v>
+        <v>145.24</v>
       </c>
       <c r="D35" t="n">
-        <v>530.5700000000001</v>
+        <v>220.9</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>167.36</v>
+        <v>239.84</v>
       </c>
       <c r="D36" t="n">
-        <v>214.36</v>
+        <v>284.2</v>
       </c>
       <c r="E36" t="n">
-        <v>15.124</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>416.16</v>
+        <v>220.9</v>
       </c>
       <c r="D37" t="n">
-        <v>475.32</v>
+        <v>270.18</v>
       </c>
       <c r="E37" t="n">
-        <v>1.968</v>
+        <v>14.632</v>
       </c>
     </row>
     <row r="38">
@@ -1150,74 +1150,74 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>475.32</v>
+        <v>284.2</v>
       </c>
       <c r="D38" t="n">
-        <v>548.1799999999999</v>
+        <v>327.76</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>6.544</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>313.72</v>
+        <v>364.64</v>
       </c>
       <c r="D39" t="n">
-        <v>394.24</v>
+        <v>431.24</v>
       </c>
       <c r="E39" t="n">
-        <v>9.816000000000001</v>
+        <v>5.716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>548.1799999999999</v>
+        <v>392.48</v>
       </c>
       <c r="D40" t="n">
-        <v>611.62</v>
+        <v>470.28</v>
       </c>
       <c r="E40" t="n">
-        <v>27.296</v>
+        <v>5.752</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>530.5700000000001</v>
+        <v>327.76</v>
       </c>
       <c r="D41" t="n">
-        <v>595.53</v>
+        <v>404.38</v>
       </c>
       <c r="E41" t="n">
-        <v>27.144</v>
+        <v>2.512</v>
       </c>
     </row>
     <row r="42">
@@ -1226,250 +1226,250 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>394.24</v>
+        <v>341.78</v>
       </c>
       <c r="D42" t="n">
-        <v>480.16</v>
+        <v>393.68</v>
       </c>
       <c r="E42" t="n">
-        <v>6.824</v>
+        <v>4.032</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>595.53</v>
+        <v>404.38</v>
       </c>
       <c r="D43" t="n">
-        <v>629.77</v>
+        <v>481.26</v>
       </c>
       <c r="E43" t="n">
-        <v>24.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>332.12</v>
+        <v>481.26</v>
       </c>
       <c r="D44" t="n">
-        <v>390.54</v>
+        <v>530.38</v>
       </c>
       <c r="E44" t="n">
-        <v>6.336</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>390.54</v>
+        <v>453.98</v>
       </c>
       <c r="D45" t="n">
-        <v>439.8</v>
+        <v>504.18</v>
       </c>
       <c r="E45" t="n">
-        <v>3.52</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>214.36</v>
+        <v>504.18</v>
       </c>
       <c r="D46" t="n">
-        <v>297.78</v>
+        <v>612.9400000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>10.912</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>216.18</v>
+        <v>270.18</v>
       </c>
       <c r="D47" t="n">
-        <v>260.46</v>
+        <v>316.76</v>
       </c>
       <c r="E47" t="n">
-        <v>13.124</v>
+        <v>11.104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>439.8</v>
+        <v>530.38</v>
       </c>
       <c r="D48" t="n">
-        <v>534.16</v>
+        <v>578.26</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>534.16</v>
+        <v>578.26</v>
       </c>
       <c r="D49" t="n">
-        <v>597.96</v>
+        <v>631.3</v>
       </c>
       <c r="E49" t="n">
-        <v>26.28</v>
+        <v>19.916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>611.62</v>
+        <v>316.76</v>
       </c>
       <c r="D50" t="n">
-        <v>675.72</v>
+        <v>379.98</v>
       </c>
       <c r="E50" t="n">
-        <v>24.976</v>
+        <v>6.892</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>297.78</v>
+        <v>393.68</v>
       </c>
       <c r="D51" t="n">
-        <v>349.98</v>
+        <v>463.04</v>
       </c>
       <c r="E51" t="n">
-        <v>7.312</v>
+        <v>1.216</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>349.98</v>
+        <v>463.04</v>
       </c>
       <c r="D52" t="n">
-        <v>402.58</v>
+        <v>562.01</v>
       </c>
       <c r="E52" t="n">
-        <v>3.672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>260.46</v>
+        <v>379.98</v>
       </c>
       <c r="D53" t="n">
-        <v>323.7</v>
+        <v>435.92</v>
       </c>
       <c r="E53" t="n">
-        <v>8.42</v>
+        <v>3.408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>402.58</v>
+        <v>470.28</v>
       </c>
       <c r="D54" t="n">
-        <v>467.58</v>
+        <v>524.54</v>
       </c>
       <c r="E54" t="n">
-        <v>0.792</v>
+        <v>1.956</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>467.58</v>
+        <v>524.54</v>
       </c>
       <c r="D55" t="n">
-        <v>577.3</v>
+        <v>621.9299999999999</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1488,21 +1488,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>323.7</v>
+        <v>431.24</v>
       </c>
       <c r="D56" t="n">
-        <v>375.46</v>
+        <v>473.74</v>
       </c>
       <c r="E56" t="n">
-        <v>3.884</v>
+        <v>2.596</v>
       </c>
     </row>
     <row r="57">
@@ -1511,93 +1511,93 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>675.72</v>
+        <v>631.3</v>
       </c>
       <c r="D57" t="n">
-        <v>720.02</v>
+        <v>680</v>
       </c>
       <c r="E57" t="n">
-        <v>21.676</v>
+        <v>16.676</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>480.16</v>
+        <v>621.9299999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>553.46</v>
+        <v>671.71</v>
       </c>
       <c r="E58" t="n">
-        <v>3.584</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>629.77</v>
+        <v>680</v>
       </c>
       <c r="D59" t="n">
-        <v>674.67</v>
+        <v>733.3</v>
       </c>
       <c r="E59" t="n">
-        <v>21</v>
+        <v>12.476</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>553.46</v>
+        <v>435.92</v>
       </c>
       <c r="D60" t="n">
-        <v>637.79</v>
+        <v>503.42</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>637.79</v>
+        <v>503.42</v>
       </c>
       <c r="D61" t="n">
-        <v>709.6900000000001</v>
+        <v>589.54</v>
       </c>
       <c r="E61" t="n">
-        <v>25.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>577.3</v>
+        <v>589.54</v>
       </c>
       <c r="D62" t="n">
-        <v>628</v>
+        <v>636.76</v>
       </c>
       <c r="E62" t="n">
-        <v>26.62</v>
+        <v>27.448</v>
       </c>
     </row>
     <row r="63">
@@ -1625,33 +1625,33 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>375.46</v>
+        <v>612.9400000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>415.9</v>
+        <v>683.64</v>
       </c>
       <c r="E63" t="n">
-        <v>0.98</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>415.9</v>
+        <v>473.74</v>
       </c>
       <c r="D64" t="n">
-        <v>505.44</v>
+        <v>565.05</v>
       </c>
       <c r="E64" t="n">
         <v>30</v>
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>674.67</v>
+        <v>565.05</v>
       </c>
       <c r="D65" t="n">
-        <v>715.61</v>
+        <v>615.85</v>
       </c>
       <c r="E65" t="n">
-        <v>18.536</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="66">
@@ -1682,36 +1682,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>715.61</v>
+        <v>615.85</v>
       </c>
       <c r="D66" t="n">
-        <v>786.89</v>
+        <v>678.33</v>
       </c>
       <c r="E66" t="n">
-        <v>15.008</v>
+        <v>21.972</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>505.44</v>
+        <v>678.33</v>
       </c>
       <c r="D67" t="n">
-        <v>569.3</v>
+        <v>722.03</v>
       </c>
       <c r="E67" t="n">
-        <v>26.784</v>
+        <v>18.732</v>
       </c>
     </row>
   </sheetData>
